--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1235.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1235.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.064642070500641</v>
+        <v>1.204699873924255</v>
       </c>
       <c r="B1">
-        <v>2.618345077490388</v>
+        <v>1.919187545776367</v>
       </c>
       <c r="C1">
-        <v>1.819874343976003</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.632806915284732</v>
+        <v>1.928333520889282</v>
       </c>
       <c r="E1">
-        <v>1.541811346546744</v>
+        <v>1.204297661781311</v>
       </c>
     </row>
   </sheetData>
